--- a/Order Wise Summary/Month Septembar - 2021/GMS Textile Ltd/Running/PG-87995.xlsx
+++ b/Order Wise Summary/Month Septembar - 2021/GMS Textile Ltd/Running/PG-87995.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>Date:</t>
   </si>
@@ -137,6 +137,12 @@
   </si>
   <si>
     <t>18S0272W</t>
+  </si>
+  <si>
+    <t>34/24</t>
+  </si>
+  <si>
+    <t>175 CM</t>
   </si>
 </sst>
 </file>
@@ -471,9 +477,69 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -485,66 +551,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -860,7 +866,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -883,45 +889,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
       <c r="Q1"/>
     </row>
     <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
       <c r="Q2"/>
     </row>
     <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.25">
@@ -947,61 +953,61 @@
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="48"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="34"/>
       <c r="E4" s="17"/>
-      <c r="F4" s="42" t="s">
+      <c r="F4" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="44"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="30"/>
       <c r="N4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
       <c r="Q4" s="3"/>
     </row>
     <row r="5" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="40" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="35" t="s">
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="35"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
     </row>
     <row r="6" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
-      <c r="B6" s="39"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="41"/>
       <c r="C6" s="10" t="s">
         <v>4</v>
       </c>
@@ -1080,7 +1086,7 @@
       <c r="N7" s="14"/>
       <c r="O7" s="14">
         <f>G31-N31</f>
-        <v>2954</v>
+        <v>2121</v>
       </c>
       <c r="P7" s="8"/>
       <c r="Q7"/>
@@ -1092,7 +1098,7 @@
       <c r="B8" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="25" t="s">
         <v>36</v>
       </c>
       <c r="D8" s="13" t="s">
@@ -1107,11 +1113,21 @@
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="14"/>
+      <c r="J8" s="19">
+        <v>44459</v>
+      </c>
+      <c r="K8" s="8">
+        <v>1743</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="N8" s="14">
+        <v>833</v>
+      </c>
       <c r="O8" s="14"/>
       <c r="P8" s="8"/>
       <c r="Q8"/>
@@ -1579,34 +1595,34 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1">
         <f>SUM(N7:N30)</f>
-        <v>0</v>
+        <v>833</v>
       </c>
       <c r="O31" s="1"/>
       <c r="P31" s="8"/>
       <c r="Q31"/>
     </row>
     <row r="32" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="29">
+      <c r="B32" s="47"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="49">
         <v>2600</v>
       </c>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
       <c r="Q32"/>
     </row>
     <row r="33" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
       <c r="G33"/>
       <c r="H33"/>
       <c r="I33"/>
@@ -1620,14 +1636,14 @@
       <c r="Q33"/>
     </row>
     <row r="34" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
       <c r="G34"/>
       <c r="H34"/>
       <c r="I34"/>
@@ -1641,14 +1657,14 @@
       <c r="Q34"/>
     </row>
     <row r="35" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
       <c r="G35"/>
       <c r="H35"/>
       <c r="I35"/>
@@ -1662,14 +1678,14 @@
       <c r="Q35"/>
     </row>
     <row r="36" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
       <c r="G36"/>
       <c r="H36"/>
       <c r="I36"/>
@@ -1683,14 +1699,14 @@
       <c r="Q36"/>
     </row>
     <row r="37" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
       <c r="G37"/>
       <c r="H37"/>
       <c r="I37"/>
@@ -1704,14 +1720,14 @@
       <c r="Q37"/>
     </row>
     <row r="38" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
       <c r="G38"/>
       <c r="H38"/>
       <c r="I38"/>
@@ -1725,14 +1741,14 @@
       <c r="Q38"/>
     </row>
     <row r="39" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
       <c r="G39"/>
       <c r="H39"/>
       <c r="I39"/>
@@ -1746,12 +1762,12 @@
       <c r="Q39"/>
     </row>
     <row r="40" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="32"/>
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
+      <c r="A40" s="44"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="44"/>
       <c r="G40"/>
       <c r="H40"/>
       <c r="I40"/>
@@ -1848,45 +1864,25 @@
       <c r="C45" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D45" s="33" t="s">
+      <c r="D45" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="33"/>
-      <c r="J45" s="33"/>
-      <c r="K45" s="30"/>
-      <c r="L45" s="30"/>
-      <c r="M45" s="30"/>
-      <c r="N45" s="30"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="45"/>
+      <c r="J45" s="45"/>
+      <c r="K45" s="42"/>
+      <c r="L45" s="42"/>
+      <c r="M45" s="42"/>
+      <c r="N45" s="42"/>
       <c r="O45" s="5"/>
       <c r="P45" s="6"/>
       <c r="Q45" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="F4:M4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="J5:Q5"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="K45:N45"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="H45:J45"/>
     <mergeCell ref="D38:F38"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="D35:F35"/>
@@ -1897,6 +1893,26 @@
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="D37:F37"/>
     <mergeCell ref="A38:C38"/>
+    <mergeCell ref="K45:N45"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="J5:Q5"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="F4:M4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <pageMargins left="0.5" right="0" top="0" bottom="0" header="0.2" footer="0"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
